--- a/500all/speech_level/speeches_CHRG-114hhrg98277.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98277.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Heck. Okay. I would like to call the hearing of the Military Personnel Subcommittee to order. I want to welcome everyone to the hearing.    I thank the witnesses for their flexibility.    Just to say at the outset, we are probably going to have another vote series at 12:30, which will be a one-vote vote series. So my plan is that when the bell rings whoever is speaking will finish what they are saying, we will depart, go vote that one vote, and come immediately back if we have not yet concluded the hearing.    So again, I want to thank everyone for coming to the subcommittee hearing to get the stakeholder views on proposed military health care reforms. This hearing is part of the committee's ongoing project to comprehensively review the current state of the Military Health System and military health care and, based on this information, identify areas that need improvement.    I want to be clear that this process is not being driven by budgetary concerns. We are using the same format that we used in the successful review of the military retirement changes, which were not driven by budget but driven by what will produce the best possible benefit to be able to recruit and retain the best and brightest into our All-Volunteer Force.    The overarching goal of the project is to ensure the Military Health System can sustain trained and ready health care providers to support the readiness of the force while providing a quality health care benefit that is valued by beneficiaries. To that end, the committee has heard from several experts, including current and former Surgeons General, the Under Secretary of Defense for Health Affairs, and civilian health care programs, regarding the current and future challenges of providing health care.    Today we look forward to building on the knowledge by hearing from military service organizations regarding their members' views on military health care. These incredibly important perspectives are crucial to understanding this multifaceted and complex issue.    Our purpose today is to discuss both what works and what needs to be fixed in the military health care system.    We are keenly aware that military health care is an extremely important benefit and any reforms must be thoroughly analyzed from multiple perspectives and structured to prevent unintended consequences. Our discussion today is an integral part of that process.    Before I introduce our panel, let me offer the ranking member, Congresswoman Davis, an opportunity to make her opening remarks.    [The prepared statement of Dr. Heck can be found in the Appendix on page 27.]</t>
   </si>
   <si>
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you. Thank you, Mr. Chairman.    And I also want to welcome, of course, all of you to this hearing. Your perspective and your views have always been very important to us, and particularly as we have been engaged in the health care reform discussion.    And, Admiral Ryan, I understand you will be stepping down. Is that correct? Yes--as President and CEO [Chief Executive Officer] of MOAA [Military Officers Association of America], and we just want to thank you so much for your service. I know that everyone in the organization feels the same and we appreciate very much the work that you have done.    We have had the opportunity to hear from some of you this past spring as we began working through many of the recommendations of the commission, and you know that we did address retirement reform as well as several other commission recommendations in the NDAA [National Defense Authorization Act]. And we have made progress in health care reform by instituting a pilot program on urgent care requiring the DOD [Department of Defense] to publicly post access standards and requiring DOD to improve TRICARE enrollment during duty station changes.    And I think we can all agree that there are areas of the health care system that work very, very well. And yet, there are some areas that we can improve. And so that is the challenge before us, I think, to try and make these improvements while maintaining a superior standard of care.    I know each of your organizations represent particular constituencies and particular concerns, so we are eager to have your insight and your thoughts. Thank you so much, again, for being here.    And I might say, Mr. Chairman, that I believe with the votes kind of got us off schedule that I may need to leave in the middle.    But I am hoping that we will be able to hear from all of you before that, and even some of the questions.    Thank you so much.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bousum</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bousum. Okay. You are recognized for 5 minutes.</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t xml:space="preserve">    Dr. Heck. Admiral Ryan.</t>
   </si>
   <si>
-    <t>Ryan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Ryan. Chairman Heck, Madam Ranking Member Davis, Congressman Coffman, Congressman MacArthur, Congressman O'Rourke, thank you. Good morning.    First, from my humble perspective as the president of MOAA for the past 13 years, this committee's actions have been the driving force, I believe, in sustaining the All-Volunteer Force while the Nation has been at war. Leaders make a difference. You all have made a real difference. Thank you.    As for today's subject of military health care, MOAA's first guiding principle is to do no harm. We think it is important to preserve what is working and fix what is not working.    In a category of what is working we would include: combat casualty care; the overall quality of military health care once it is delivered; TRICARE for Life; pharmacy programs, including the mail-order pharmacy; and TRICARE Standard, for the most part. On the latter score, MOAA's recent survey of more than 30,000 beneficiaries found Standard participants had a higher satisfaction rate and significantly lower dissatisfaction than Prime beneficiaries.    In the list of things that are not working, MOAA would include, first and foremost, the fundamental inefficiency of a system built around three separate military service programs with no single budget and oversight authority. We fight wars jointly, thanks to Congress' insistence in the 1980s, over the objection of all the Joint Chiefs.    Why can't we do the same in medical? In layman's terms, there are simply too many cooks in the kitchen.    As a result of our survey, it confirmed serious shortcomings in the TRICARE Prime appointing and referral system; the Guard and Reserve TRICARE coverage, as Scott alluded to; the patient load in military treatment facilities where military providers see far fewer patients per week than civilian providers; and inadequate case management of the higher cost for at-risk health care users.    One of the biggest problems is a serious disconnect between rhetoric and reality on DOD health care costs. Every year some defense officials offer dire budget projections of health care costs they say are out of--spiraling out of control. But recent history shows these projections have been consistently wrong.    Slide, please? I don't know if you are going to be able to put it up there.    The chart displayed reflects the reality: DOD health costs have been flat or declining for the past 5 years. Figures through fiscal year 2014 are actual expenditures; fiscal years 2015 and 2016 are projections in the latest DOD report and the fiscal year 2016 budget.    As you can see, TRICARE for Life costs have dropped significantly and purchased-care costs have been flat or declining. A prime source of cost increases has been in-house military care, which is mainly a factor of medical readiness and system inefficiency.    [The slide referred to can be found in the Appendix on page 102.]</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t xml:space="preserve">    Dr. Heck. Ms. Raezer.</t>
   </si>
   <si>
-    <t>Raezer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Raezer. Thank you, Mr. Chairman, and Ranking Member Davis, and other members of the subcommittee, for inviting me to speak today on behalf of the National Military Family Association and the families we serve about what is working and what is not working with military health care for families.    Our written statement submitted for the record contains a summary of what we hear most often from currently serving military families about their experiences, good and not so good, in accessing care and the quality of the care they receive.    We appreciate the provisions that you included in the recent NDAA as a step in addressing some of those issues about access and quality, but it has been more than 20 years since TRICARE was created. It is time for a holistic examination of TRICARE and the Military Health System, not tweaks around the edges.    But we remain committed to the concept that the reform discussion must start with how to build and deliver the best benefit possible for our military families--which I think I heard from you, Mr. Chairman--not on how much families should pay for that benefit.    Military health care must meet the unique needs of military families, such as frequent moves and deployments, as well as address the concerns of families in remote locations, individuals with complex health care needs, wounded service members, and our National Guard and Reserve members and their families. Service members must get the care they need to be medically ready.    Above all, coverage, access, quality, and cost should acknowledge the value of the service and sacrifice of troops and their families. As Admiral Ryan said, our military families deserve nothing less than the best possible health care coverage and care.    We do know that many of our families remain satisfied with TRICARE--the care they receive and the low cost of that care. Our concern for these families centers on what could happen to their care if financial pressures take a greater toll on military hospitals or the TRICARE benefit over time.    When we asked for families' input about their health care experiences, they routinely cite difficulty in obtaining timely appointments; bureaucratic hassles to obtain referrals; lack of continuity of care; difficulties in navigating the system, especially when moving from one military community to another; a lack of coverage for certain services; and poor customer service.    While most families rate ``poor access'' as their number one health care quality issue, some do tell us of experiences of less than satisfactory care--examples similar to what was found in the 2014 Military Health System Review conducted by the Department of Defense.    But we do know there are models of timely access and quality improvements in pockets of the direct care system. But there doesn't seem to be a single entity with the power to drive implementation of those improvements across the system and hold those in need of improvement accountable.    Based on what we hear from military families, here is what we would like you to look at as you begin your review of     Changes in and enforcement of access, quality, and customer service standards must apply across the entire Military Health System, direct care and what is purchased from the private sector. Before initiating additional recapture efforts to bring more beneficiaries into the military hospital, military hospitals should be required to certify they are meeting appointment access standards for current patients.    Reconsider the concept of a unified medical command to provide a single entity responsible for ensuring consistency and quality accountability across the system. Ask how private sector coverage options, patient engagement efforts, and quality standards can inform TRICARE reform.    Consider the demographics of military families today in updating the TRICARE benefit and in managing the balance between meeting the readiness mission and delivering an employer-provided health care benefit to families. A Medicare-based reimbursement system and a focus on troop and provider readiness for war don't easily translate into a model of coverage and care for a population of young families with kids. Here is a statistic for you: Of the 1.1 million children of Active Duty service members, almost 50 percent are age 6 or younger.    Questions about any proposed changes to TRICARE should also be asked about the current system. How does this structure promote military readiness? How does it ensure timely access and quality care at the best possible price for both beneficiaries and the government?    In an era of budget constraints when military families see any proposed change in their benefits as just another attempt to cut costs, it is important to rebuild their trust and to show them their service is valued. We hope this hearing is only the beginning of a thorough discussion of how to deliver the best care benefit to military families.    Thank you.    [The prepared statement of Ms. Raezer can be found in the Appendix on page 71.]</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t xml:space="preserve">    Dr. Heck. Great. Thank you. I will save my second question for the next round since it is going to take longer than a minute and a half.    Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    I am more familiar with the VA [Veteran Affairs] health care system--I have been on the VA Committee for 3 years and on this committee for almost a year--than I am the TRICARE and DOD system. But you mentioned something that caught my attention because we have heard it so often on the VA side, which is access standards and accuracy in measuring access standards.    In the VA it was wait times. And, you know, we were told with all certainty by the VA 2 years ago that we were seeing everybody within 14 days, and there was a--the infamous wait-time scandal in Phoenix.    So I would love for you to expand on that a little bit and tell me what your members are seeing, or what the concerns are, or what your recommendations are for assuring that we are meeting the standards and that we are measuring those accurately.    In our case in El Paso we bypassed the VA and just asked veterans directly and did a survey of veterans in El Paso to find out what their real wait times were. And instead of 14 days we found for primary care it was 81 days on average; for mental health care, 74 days.    So that, and then the second question for you and then anyone else who would like to address it, one of the MCRMC's recommendations was having greater interoperability between VA and DOD. And there is the DOD/VA Joint Executive Committee to standardize and enforce collaboration, so any thoughts on that would be appreciated.    And I will start with you, Ms. Raezer.</t>
   </si>
   <si>
@@ -209,9 +191,6 @@
   </si>
   <si>
     <t>412643</t>
-  </si>
-  <si>
-    <t>Thomas MacArthur</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chair.    Thank you for being here.    We got a lot of hearings now on this subject. We have met with the commission, active and retired members of the services and the DOD, the Surgeons General, the private sector, the public sector, and now stakeholder groups. And I am reminded that the purpose of walking is to get somewhere, and we are getting to that point where I think we need to come to some kind of a landing, and that is what we are working on.    And as I think about our objectives, it's clearly readiness and it's clearly keeping our end of the bargain--family care and providing for people. And I think those two are front and center to me.    Rather than asking you detailed questions, I'd actually like to lay out a broad framework that is beginning to gel in my mind and I would like you to react to it. And that framework is a couple of changes to the current system.    One would be a consolidation of the medical health system into a consolidated command, rather than having each service run their own hospitals. And then the Surgeons General would focus on training, equipping, and supporting, not running a system.    Two would be granting broad authority to this central command to change plans, to change delivery within broad cost constraints that we would define here.    Three would be investing in centers--military centers in areas of concentration of troops and families and increasing--in other areas where there is less concentration, increasing access to private health care.    And then lastly would be ensuring a vibrant military health Reserve system so that we can make use of health care professionals in the private sector who agree to be on Reserve status and go wherever whenever.    Could you each take--I have only got 3 minutes left. Could you each take a few moments to talk about pros and cons to that framework?</t>
@@ -766,11 +745,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -790,13 +767,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -818,11 +793,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -844,11 +817,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -868,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -894,13 +863,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -922,11 +889,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -946,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -974,11 +937,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -998,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1026,11 +985,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1050,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1076,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1104,11 +1057,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1128,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1156,11 +1105,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1180,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1206,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1232,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1258,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1284,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1310,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1336,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1362,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1388,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1414,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1440,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1466,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1492,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1518,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1544,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1572,11 +1489,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1596,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1624,11 +1537,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1648,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1676,11 +1585,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1700,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1728,11 +1633,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1752,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1778,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1804,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1830,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1856,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1882,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1908,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1934,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1960,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1986,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2012,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2038,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2064,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>64</v>
-      </c>
-      <c r="G52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2090,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2116,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2142,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2168,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2194,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2222,11 +2089,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2246,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2274,11 +2137,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2298,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2326,11 +2185,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2350,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2378,11 +2233,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2402,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2430,11 +2281,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2454,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2482,11 +2329,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2506,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2534,11 +2377,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2558,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2584,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2612,11 +2449,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2636,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2662,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2688,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2714,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2740,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2766,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2792,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2820,11 +2641,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2844,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
-      </c>
-      <c r="G82" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2870,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2896,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
-      </c>
-      <c r="G84" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2922,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2948,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
-      </c>
-      <c r="G86" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2974,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3000,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
-      </c>
-      <c r="G88" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3026,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3052,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>64</v>
-      </c>
-      <c r="G90" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3080,11 +2881,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3104,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3132,11 +2929,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3156,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3184,11 +2977,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3208,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3236,11 +3025,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3260,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3288,11 +3073,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98277.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98277.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Heck. Okay. I would like to call the hearing of the Military Personnel Subcommittee to order. I want to welcome everyone to the hearing.    I thank the witnesses for their flexibility.    Just to say at the outset, we are probably going to have another vote series at 12:30, which will be a one-vote vote series. So my plan is that when the bell rings whoever is speaking will finish what they are saying, we will depart, go vote that one vote, and come immediately back if we have not yet concluded the hearing.    So again, I want to thank everyone for coming to the subcommittee hearing to get the stakeholder views on proposed military health care reforms. This hearing is part of the committee's ongoing project to comprehensively review the current state of the Military Health System and military health care and, based on this information, identify areas that need improvement.    I want to be clear that this process is not being driven by budgetary concerns. We are using the same format that we used in the successful review of the military retirement changes, which were not driven by budget but driven by what will produce the best possible benefit to be able to recruit and retain the best and brightest into our All-Volunteer Force.    The overarching goal of the project is to ensure the Military Health System can sustain trained and ready health care providers to support the readiness of the force while providing a quality health care benefit that is valued by beneficiaries. To that end, the committee has heard from several experts, including current and former Surgeons General, the Under Secretary of Defense for Health Affairs, and civilian health care programs, regarding the current and future challenges of providing health care.    Today we look forward to building on the knowledge by hearing from military service organizations regarding their members' views on military health care. These incredibly important perspectives are crucial to understanding this multifaceted and complex issue.    Our purpose today is to discuss both what works and what needs to be fixed in the military health care system.    We are keenly aware that military health care is an extremely important benefit and any reforms must be thoroughly analyzed from multiple perspectives and structured to prevent unintended consequences. Our discussion today is an integral part of that process.    Before I introduce our panel, let me offer the ranking member, Congresswoman Davis, an opportunity to make her opening remarks.    [The prepared statement of Dr. Heck can be found in the Appendix on page 27.]</t>
   </si>
   <si>
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you. Thank you, Mr. Chairman.    And I also want to welcome, of course, all of you to this hearing. Your perspective and your views have always been very important to us, and particularly as we have been engaged in the health care reform discussion.    And, Admiral Ryan, I understand you will be stepping down. Is that correct? Yes--as President and CEO [Chief Executive Officer] of MOAA [Military Officers Association of America], and we just want to thank you so much for your service. I know that everyone in the organization feels the same and we appreciate very much the work that you have done.    We have had the opportunity to hear from some of you this past spring as we began working through many of the recommendations of the commission, and you know that we did address retirement reform as well as several other commission recommendations in the NDAA [National Defense Authorization Act]. And we have made progress in health care reform by instituting a pilot program on urgent care requiring the DOD [Department of Defense] to publicly post access standards and requiring DOD to improve TRICARE enrollment during duty station changes.    And I think we can all agree that there are areas of the health care system that work very, very well. And yet, there are some areas that we can improve. And so that is the challenge before us, I think, to try and make these improvements while maintaining a superior standard of care.    I know each of your organizations represent particular constituencies and particular concerns, so we are eager to have your insight and your thoughts. Thank you so much, again, for being here.    And I might say, Mr. Chairman, that I believe with the votes kind of got us off schedule that I may need to leave in the middle.    But I am hoping that we will be able to hear from all of you before that, and even some of the questions.    Thank you so much.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Bousum</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bousum. Okay. You are recognized for 5 minutes.</t>
   </si>
   <si>
@@ -91,6 +109,9 @@
     <t xml:space="preserve">    Dr. Heck. Admiral Ryan.</t>
   </si>
   <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Ryan. Chairman Heck, Madam Ranking Member Davis, Congressman Coffman, Congressman MacArthur, Congressman O'Rourke, thank you. Good morning.    First, from my humble perspective as the president of MOAA for the past 13 years, this committee's actions have been the driving force, I believe, in sustaining the All-Volunteer Force while the Nation has been at war. Leaders make a difference. You all have made a real difference. Thank you.    As for today's subject of military health care, MOAA's first guiding principle is to do no harm. We think it is important to preserve what is working and fix what is not working.    In a category of what is working we would include: combat casualty care; the overall quality of military health care once it is delivered; TRICARE for Life; pharmacy programs, including the mail-order pharmacy; and TRICARE Standard, for the most part. On the latter score, MOAA's recent survey of more than 30,000 beneficiaries found Standard participants had a higher satisfaction rate and significantly lower dissatisfaction than Prime beneficiaries.    In the list of things that are not working, MOAA would include, first and foremost, the fundamental inefficiency of a system built around three separate military service programs with no single budget and oversight authority. We fight wars jointly, thanks to Congress' insistence in the 1980s, over the objection of all the Joint Chiefs.    Why can't we do the same in medical? In layman's terms, there are simply too many cooks in the kitchen.    As a result of our survey, it confirmed serious shortcomings in the TRICARE Prime appointing and referral system; the Guard and Reserve TRICARE coverage, as Scott alluded to; the patient load in military treatment facilities where military providers see far fewer patients per week than civilian providers; and inadequate case management of the higher cost for at-risk health care users.    One of the biggest problems is a serious disconnect between rhetoric and reality on DOD health care costs. Every year some defense officials offer dire budget projections of health care costs they say are out of--spiraling out of control. But recent history shows these projections have been consistently wrong.    Slide, please? I don't know if you are going to be able to put it up there.    The chart displayed reflects the reality: DOD health costs have been flat or declining for the past 5 years. Figures through fiscal year 2014 are actual expenditures; fiscal years 2015 and 2016 are projections in the latest DOD report and the fiscal year 2016 budget.    As you can see, TRICARE for Life costs have dropped significantly and purchased-care costs have been flat or declining. A prime source of cost increases has been in-house military care, which is mainly a factor of medical readiness and system inefficiency.    [The slide referred to can be found in the Appendix on page 102.]</t>
   </si>
   <si>
@@ -100,6 +121,9 @@
     <t xml:space="preserve">    Dr. Heck. Ms. Raezer.</t>
   </si>
   <si>
+    <t>Raezer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Raezer. Thank you, Mr. Chairman, and Ranking Member Davis, and other members of the subcommittee, for inviting me to speak today on behalf of the National Military Family Association and the families we serve about what is working and what is not working with military health care for families.    Our written statement submitted for the record contains a summary of what we hear most often from currently serving military families about their experiences, good and not so good, in accessing care and the quality of the care they receive.    We appreciate the provisions that you included in the recent NDAA as a step in addressing some of those issues about access and quality, but it has been more than 20 years since TRICARE was created. It is time for a holistic examination of TRICARE and the Military Health System, not tweaks around the edges.    But we remain committed to the concept that the reform discussion must start with how to build and deliver the best benefit possible for our military families--which I think I heard from you, Mr. Chairman--not on how much families should pay for that benefit.    Military health care must meet the unique needs of military families, such as frequent moves and deployments, as well as address the concerns of families in remote locations, individuals with complex health care needs, wounded service members, and our National Guard and Reserve members and their families. Service members must get the care they need to be medically ready.    Above all, coverage, access, quality, and cost should acknowledge the value of the service and sacrifice of troops and their families. As Admiral Ryan said, our military families deserve nothing less than the best possible health care coverage and care.    We do know that many of our families remain satisfied with TRICARE--the care they receive and the low cost of that care. Our concern for these families centers on what could happen to their care if financial pressures take a greater toll on military hospitals or the TRICARE benefit over time.    When we asked for families' input about their health care experiences, they routinely cite difficulty in obtaining timely appointments; bureaucratic hassles to obtain referrals; lack of continuity of care; difficulties in navigating the system, especially when moving from one military community to another; a lack of coverage for certain services; and poor customer service.    While most families rate ``poor access'' as their number one health care quality issue, some do tell us of experiences of less than satisfactory care--examples similar to what was found in the 2014 Military Health System Review conducted by the Department of Defense.    But we do know there are models of timely access and quality improvements in pockets of the direct care system. But there doesn't seem to be a single entity with the power to drive implementation of those improvements across the system and hold those in need of improvement accountable.    Based on what we hear from military families, here is what we would like you to look at as you begin your review of     Changes in and enforcement of access, quality, and customer service standards must apply across the entire Military Health System, direct care and what is purchased from the private sector. Before initiating additional recapture efforts to bring more beneficiaries into the military hospital, military hospitals should be required to certify they are meeting appointment access standards for current patients.    Reconsider the concept of a unified medical command to provide a single entity responsible for ensuring consistency and quality accountability across the system. Ask how private sector coverage options, patient engagement efforts, and quality standards can inform TRICARE reform.    Consider the demographics of military families today in updating the TRICARE benefit and in managing the balance between meeting the readiness mission and delivering an employer-provided health care benefit to families. A Medicare-based reimbursement system and a focus on troop and provider readiness for war don't easily translate into a model of coverage and care for a population of young families with kids. Here is a statistic for you: Of the 1.1 million children of Active Duty service members, almost 50 percent are age 6 or younger.    Questions about any proposed changes to TRICARE should also be asked about the current system. How does this structure promote military readiness? How does it ensure timely access and quality care at the best possible price for both beneficiaries and the government?    In an era of budget constraints when military families see any proposed change in their benefits as just another attempt to cut costs, it is important to rebuild their trust and to show them their service is valued. We hope this hearing is only the beginning of a thorough discussion of how to deliver the best care benefit to military families.    Thank you.    [The prepared statement of Ms. Raezer can be found in the Appendix on page 71.]</t>
   </si>
   <si>
@@ -169,6 +193,9 @@
     <t xml:space="preserve">    Dr. Heck. Great. Thank you. I will save my second question for the next round since it is going to take longer than a minute and a half.    Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    I am more familiar with the VA [Veteran Affairs] health care system--I have been on the VA Committee for 3 years and on this committee for almost a year--than I am the TRICARE and DOD system. But you mentioned something that caught my attention because we have heard it so often on the VA side, which is access standards and accuracy in measuring access standards.    In the VA it was wait times. And, you know, we were told with all certainty by the VA 2 years ago that we were seeing everybody within 14 days, and there was a--the infamous wait-time scandal in Phoenix.    So I would love for you to expand on that a little bit and tell me what your members are seeing, or what the concerns are, or what your recommendations are for assuring that we are meeting the standards and that we are measuring those accurately.    In our case in El Paso we bypassed the VA and just asked veterans directly and did a survey of veterans in El Paso to find out what their real wait times were. And instead of 14 days we found for primary care it was 81 days on average; for mental health care, 74 days.    So that, and then the second question for you and then anyone else who would like to address it, one of the MCRMC's recommendations was having greater interoperability between VA and DOD. And there is the DOD/VA Joint Executive Committee to standardize and enforce collaboration, so any thoughts on that would be appreciated.    And I will start with you, Ms. Raezer.</t>
   </si>
   <si>
@@ -191,6 +218,12 @@
   </si>
   <si>
     <t>412643</t>
+  </si>
+  <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>Tom</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chair.    Thank you for being here.    We got a lot of hearings now on this subject. We have met with the commission, active and retired members of the services and the DOD, the Surgeons General, the private sector, the public sector, and now stakeholder groups. And I am reminded that the purpose of walking is to get somewhere, and we are getting to that point where I think we need to come to some kind of a landing, and that is what we are working on.    And as I think about our objectives, it's clearly readiness and it's clearly keeping our end of the bargain--family care and providing for people. And I think those two are front and center to me.    Rather than asking you detailed questions, I'd actually like to lay out a broad framework that is beginning to gel in my mind and I would like you to react to it. And that framework is a couple of changes to the current system.    One would be a consolidation of the medical health system into a consolidated command, rather than having each service run their own hospitals. And then the Surgeons General would focus on training, equipping, and supporting, not running a system.    Two would be granting broad authority to this central command to change plans, to change delivery within broad cost constraints that we would define here.    Three would be investing in centers--military centers in areas of concentration of troops and families and increasing--in other areas where there is less concentration, increasing access to private health care.    And then lastly would be ensuring a vibrant military health Reserve system so that we can make use of health care professionals in the private sector who agree to be on Reserve status and go wherever whenever.    Could you each take--I have only got 3 minutes left. Could you each take a few moments to talk about pros and cons to that framework?</t>
@@ -695,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,2357 +758,2740 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
       <c r="H57" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>59</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G82" t="s">
+        <v>68</v>
+      </c>
       <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G84" t="s">
+        <v>68</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G88" t="s">
+        <v>68</v>
+      </c>
       <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G90" t="s">
+        <v>68</v>
+      </c>
       <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>110</v>
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98277.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98277.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Heck</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Davis</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>412643</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>MacArthur</t>
@@ -728,7 +740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +748,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,2737 +773,2924 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>59</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>62</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>59</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>59</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>59</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>62</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G82" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H82" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H84" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H86" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G88" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H90" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
